--- a/Getriebeberechnung Me3.xlsx
+++ b/Getriebeberechnung Me3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suenn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\butsc\Documents\GitHub\ME3-Entwurf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9857E4E4-AEBB-4300-9A4F-332ACB72771F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C30C649-B401-4540-939A-F160BF87EEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{81DD310D-B317-4A19-9C30-22399F1A8788}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81DD310D-B317-4A19-9C30-22399F1A8788}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Getriebe" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>theoretisch</t>
   </si>
@@ -209,6 +207,9 @@
   </si>
   <si>
     <t>A16x10x36</t>
+  </si>
+  <si>
+    <t>3?</t>
   </si>
 </sst>
 </file>
@@ -218,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,7 +474,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -771,21 +772,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E76588-977C-4D6C-9224-F6E0C624C1AE}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.81640625" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75">
+    <row r="1" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
@@ -807,7 +808,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="18.75">
+    <row r="2" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -837,7 +838,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75">
+    <row r="3" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -870,7 +871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -896,7 +897,7 @@
       </c>
       <c r="Q4" s="16"/>
     </row>
-    <row r="5" spans="1:17" ht="18.75">
+    <row r="5" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -923,7 +924,7 @@
       </c>
       <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="1:17" ht="18.75">
+    <row r="6" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -957,7 +958,7 @@
       </c>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:17" ht="18.75">
+    <row r="7" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -976,7 +977,7 @@
         <v>21.68</v>
       </c>
       <c r="K7" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1"/>
       <c r="O7" s="18">
@@ -987,7 +988,7 @@
       </c>
       <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75">
+    <row r="8" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
         <v>19</v>
@@ -1011,13 +1012,13 @@
         <v>32.53</v>
       </c>
       <c r="K8" s="5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1"/>
       <c r="O8" s="19"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -1043,7 +1044,7 @@
         <v>46.7</v>
       </c>
       <c r="K9" s="5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L9" s="1"/>
       <c r="O9" s="20">
@@ -1054,7 +1055,7 @@
       </c>
       <c r="Q9" s="17"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
         <v>23</v>
@@ -1084,7 +1085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
@@ -1102,7 +1103,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
         <v>27</v>
@@ -1123,7 +1124,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75">
+    <row r="13" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1145,7 +1146,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75">
+    <row r="14" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>30</v>
@@ -1158,7 +1159,7 @@
       </c>
       <c r="G14" s="3">
         <f>ROUND((2*50*10^3)/(K7^2*4),2)</f>
-        <v>27.78</v>
+        <v>40</v>
       </c>
       <c r="H14" s="5">
         <v>30</v>
@@ -1169,11 +1170,11 @@
       </c>
       <c r="K14" s="3">
         <f>ROUND((1.8*K7*COS((20*PI())/180))/(C9-2.5),2)</f>
-        <v>2.74</v>
+        <v>2.29</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="4" t="s">
         <v>32</v>
@@ -1189,7 +1190,7 @@
       </c>
       <c r="G15" s="3">
         <f>ROUND((2*50*10^3*G9)/(K8^2*4),2)</f>
-        <v>52.81</v>
+        <v>68.98</v>
       </c>
       <c r="H15" s="5">
         <v>55</v>
@@ -1201,9 +1202,11 @@
       <c r="K15" s="5">
         <v>3</v>
       </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="L15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="4" t="s">
         <v>34</v>
@@ -1222,7 +1225,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75">
+    <row r="17" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1238,7 +1241,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1257,7 +1260,7 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="18.75">
+    <row r="19" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>36</v>
@@ -1279,7 +1282,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>38</v>
@@ -1303,7 +1306,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="4" t="s">
         <v>40</v>
@@ -1327,7 +1330,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
         <v>42</v>
@@ -1346,7 +1349,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
         <v>43</v>
@@ -1368,7 +1371,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1382,7 +1385,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1396,7 +1399,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1410,7 +1413,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1424,7 +1427,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1438,7 +1441,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1452,7 +1455,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1466,7 +1469,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1480,7 +1483,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1494,7 +1497,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1539,17 +1542,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77410A73-11E5-46DB-9102-8D255C550964}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="25" t="s">
         <v>44</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>50</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>51</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>52</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="L6" s="21">
@@ -1659,7 +1662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="L7" s="6">
@@ -1675,7 +1678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="L8" s="6">
         <v>44</v>
       </c>
@@ -1689,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
@@ -1715,17 +1718,17 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="23">
         <f>'1. Getriebe'!K7</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3">
         <f>(2*'1. Getriebe'!D2*10^3)/('1. Getriebe'!K7*3*'2. Passfedern'!C5*1*1)</f>
-        <v>4.143154266205948</v>
+        <v>4.9717851194471372</v>
       </c>
       <c r="E10" s="24">
         <v>14</v>
@@ -1746,17 +1749,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="23">
         <f>'1. Getriebe'!K8</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3">
         <f>(2*'1. Getriebe'!D2*'1. Getriebe'!G9*10^3)/('1. Getriebe'!K8*3*'2. Passfedern'!C5*1*1)</f>
-        <v>10.502896064832077</v>
+        <v>12.003309788379518</v>
       </c>
       <c r="E11" s="24">
         <v>25</v>
@@ -1765,17 +1768,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="23">
         <f>'1. Getriebe'!K9</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3">
         <f>(2*'1. Getriebe'!D2*'1. Getriebe'!G9*'1. Getriebe'!G10*10^3)/('1. Getriebe'!K9*4*'2. Passfedern'!C5*1*1)</f>
-        <v>16.957403101037972</v>
+        <v>18.65314341114177</v>
       </c>
       <c r="E12" s="24">
         <v>36</v>
@@ -1784,7 +1787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>

--- a/Getriebeberechnung Me3.xlsx
+++ b/Getriebeberechnung Me3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\butsc\Documents\GitHub\ME3-Entwurf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C30C649-B401-4540-939A-F160BF87EEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8893D390-98FE-4563-B329-60756FCDAFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{81DD310D-B317-4A19-9C30-22399F1A8788}"/>
+    <workbookView xWindow="2940" yWindow="880" windowWidth="14400" windowHeight="7370" xr2:uid="{81DD310D-B317-4A19-9C30-22399F1A8788}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Getriebe" sheetId="1" r:id="rId1"/>
@@ -773,7 +773,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
